--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\BHRbEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BHRbEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F484CE-45A5-4806-84AE-B161EE71B739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,21 +19,23 @@
     <sheet name="Future Scaling" sheetId="10" r:id="rId4"/>
     <sheet name="BHRbEF" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>BAU Heat Rate by Electricity Fuel</t>
   </si>
@@ -46,9 +49,6 @@
     <t>http://www.cercind.gov.in/2013/whatsnew/Sop.pdf</t>
   </si>
   <si>
-    <t>Lazard</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -214,37 +214,43 @@
     <t>Nuclear, Biomass, and Scaling for New Plants</t>
   </si>
   <si>
-    <t>Natural Gas Peaker and Petroleum</t>
-  </si>
-  <si>
-    <t>Lazard's Levelized Cost of Energy Analysis - Version 11.0</t>
-  </si>
-  <si>
-    <t>https://www.lazard.com/media/450337/lazard-levelized-cost-of-energy-version-110.pdf</t>
-  </si>
-  <si>
-    <t>Specific Plant Data for Lignite and Natural Gas Nonpeakers</t>
-  </si>
-  <si>
-    <t>CEA</t>
-  </si>
-  <si>
-    <t>LIST OF THERMAL POWER STATIONS AS ON 31.03.2017</t>
-  </si>
-  <si>
-    <t>http://www.cea.nic.in/reports/others/planning/pdm/list_power_stations_2017.pdf</t>
-  </si>
-  <si>
-    <t>We use existing heat reats from CERC, NITI, and CEA. For new plants, take the average</t>
-  </si>
-  <si>
-    <t>of the improvement rate in future years and multiply this by the exiting plant heat rate.</t>
+    <t>Hard coal, petroleum, nat gas peaker -- taken from BAU Expected Capacity Factors (BECF-new) variable sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable reports operating heat rates for coal, nuclear, and petroleum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume values for crude oil, heavy residual fuel to be same as petroleum, and </t>
+  </si>
+  <si>
+    <t>municipal solid waste to be same as biomass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the improvement rate in expected capacity factors for future years and multiply this </t>
+  </si>
+  <si>
+    <t>Heat Rate by Electricity Fuel BTU/(MW*hour)</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>by the existing plant heat rate.</t>
+  </si>
+  <si>
+    <t>We use existing heat reats from CERC and NITI. For new plants, we take the average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -319,7 +325,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,6 +333,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -344,84 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="IESS"/>
-      <sheetName val="CEA NEP"/>
-      <sheetName val="Table 6.7.A"/>
-      <sheetName val="BECF-pre-ret"/>
-      <sheetName val="BECF-pre-nonret"/>
-      <sheetName val="BECF-new"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="F2">
-            <v>0.5988</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="11">
-          <cell r="B11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="C11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="D11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="E11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="F11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="G11">
-            <v>0.10585714285714287</v>
-          </cell>
-          <cell r="H11">
-            <v>0.10585714285714287</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="C12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="D12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="G12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-          <cell r="H12">
-            <v>7.9428571428571418E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,11 +616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,23 +647,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,182 +673,150 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>2017</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>2017</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.9683207199999999</v>
+      </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A24">
+        <v>3412.1416300000001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3.9683207199999999</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3412.1416300000001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>2396</v>
       </c>
       <c r="C2">
-        <f>B2*About!$A$32</f>
+        <f>B2*About!$A$23</f>
         <v>9508.0964451199998</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT(I3:I7,J3:J7)/SUM(J3:J7)</f>
         <v>3024.1574074074074</v>
       </c>
       <c r="C3">
-        <f>B3*About!$A$32</f>
+        <f>B3*About!$A$23</f>
         <v>12000.826500356296</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>3897</v>
@@ -933,18 +831,18 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>SUMPRODUCT(I10:I16,J10:J16)/SUM(J10:J16)</f>
         <v>2018.2271633402979</v>
       </c>
       <c r="C4">
-        <f>B4*About!$A$32</f>
+        <f>B4*About!$A$23</f>
         <v>8008.9726699501289</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>2737</v>
@@ -959,7 +857,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>2874</v>
@@ -974,7 +872,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>2871</v>
@@ -989,13 +887,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>2601</v>
@@ -1010,43 +908,43 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.35</v>
       </c>
       <c r="C8">
-        <f>About!$A$33/B8</f>
+        <f>About!$A$24/B8</f>
         <v>9748.9760857142865</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="10">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9">
         <v>0.25</v>
       </c>
       <c r="C9">
-        <f>About!$A$33/B9</f>
+        <f>About!$A$24/B9</f>
         <v>13648.56652</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>2064</v>
@@ -1055,19 +953,19 @@
         <v>419.33</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="str">
         <f>B11</f>
         <v>btu/kwh</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>2115</v>
@@ -1076,12 +974,12 @@
         <v>663.36</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>9750</v>
@@ -1091,7 +989,7 @@
         <v>9750</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>2057</v>
@@ -1100,12 +998,12 @@
         <v>656.2</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <f>AVERAGE(8000,9804)</f>
@@ -1116,7 +1014,7 @@
         <v>8902</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>2031</v>
@@ -1125,12 +1023,12 @@
         <v>657.39</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>1951</v>
@@ -1139,12 +1037,12 @@
         <v>431.59</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>1986</v>
@@ -1153,12 +1051,12 @@
         <v>829.78</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <v>1967</v>
@@ -1167,23 +1065,23 @@
         <v>1200</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>2689</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18">
         <v>3721</v>
@@ -1192,7 +1090,7 @@
         <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1201,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1136,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.34070259776669048</v>
@@ -1264,7 +1162,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.58826000000000001</v>
@@ -1290,7 +1188,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.35</v>
@@ -1316,7 +1214,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.26250000000000001</v>
@@ -1342,7 +1240,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:H6" si="0">B2</f>
@@ -1379,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,1004 +1396,907 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11">
-        <f>'[1]CEA NEP'!F2</f>
-        <v>0.5988</v>
-      </c>
-      <c r="C2" s="11">
-        <f t="shared" ref="C2:F8" si="0">($G2-$B2)/5+B2</f>
-        <v>0.60530612345282009</v>
-      </c>
-      <c r="D2" s="11">
-        <f t="shared" si="0"/>
-        <v>0.61181224690564018</v>
-      </c>
-      <c r="E2" s="11">
-        <f t="shared" si="0"/>
-        <v>0.61831837035846027</v>
-      </c>
-      <c r="F2" s="11">
-        <f t="shared" si="0"/>
-        <v>0.62482449381128036</v>
-      </c>
-      <c r="G2" s="11">
-        <f>B2*IESS!C2/IESS!B2</f>
-        <v>0.63133061726410056</v>
-      </c>
-      <c r="H2" s="11">
-        <f t="shared" ref="H2:K8" si="1">($L2-$G2)/5+G2</f>
-        <v>0.63515487528995085</v>
-      </c>
-      <c r="I2" s="11">
-        <f t="shared" si="1"/>
-        <v>0.63897913331580114</v>
-      </c>
-      <c r="J2" s="11">
-        <f t="shared" si="1"/>
-        <v>0.64280339134165143</v>
-      </c>
-      <c r="K2" s="11">
-        <f t="shared" si="1"/>
-        <v>0.64662764936750172</v>
-      </c>
-      <c r="L2" s="11">
-        <f>G2*IESS!D2/IESS!C2</f>
-        <v>0.65045190739335224</v>
-      </c>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:P8" si="2">($Q2-$L2)/5+L2</f>
-        <v>0.65295523613208795</v>
-      </c>
-      <c r="N2" s="11">
-        <f t="shared" si="2"/>
-        <v>0.65545856487082366</v>
-      </c>
-      <c r="O2" s="11">
-        <f t="shared" si="2"/>
-        <v>0.65796189360955937</v>
-      </c>
-      <c r="P2" s="11">
-        <f t="shared" si="2"/>
-        <v>0.66046522234829508</v>
-      </c>
-      <c r="Q2" s="11">
-        <f>L2*IESS!E2/IESS!D2</f>
-        <v>0.66296855108703079</v>
-      </c>
-      <c r="R2" s="11">
-        <f t="shared" ref="R2:U8" si="3">($V2-$Q2)/5+Q2</f>
-        <v>0.66520838995853315</v>
-      </c>
-      <c r="S2" s="11">
-        <f t="shared" si="3"/>
-        <v>0.66744822883003552</v>
-      </c>
-      <c r="T2" s="11">
-        <f t="shared" si="3"/>
-        <v>0.66968806770153788</v>
-      </c>
-      <c r="U2" s="11">
-        <f t="shared" si="3"/>
-        <v>0.67192790657304025</v>
-      </c>
-      <c r="V2" s="11">
-        <f>Q2*IESS!F2/IESS!E2</f>
-        <v>0.67416774544454283</v>
-      </c>
-      <c r="W2" s="11">
-        <f t="shared" ref="W2:Z8" si="4">($AA2-$V2)/5+V2</f>
-        <v>0.67633454392346948</v>
-      </c>
-      <c r="X2" s="11">
-        <f t="shared" si="4"/>
-        <v>0.67850134240239612</v>
-      </c>
-      <c r="Y2" s="11">
-        <f t="shared" si="4"/>
-        <v>0.68066814088132277</v>
-      </c>
-      <c r="Z2" s="11">
-        <f t="shared" si="4"/>
-        <v>0.68283493936024942</v>
-      </c>
-      <c r="AA2" s="11">
-        <f>V2*IESS!G2/IESS!F2</f>
-        <v>0.68500173783917584</v>
-      </c>
-      <c r="AB2" s="11">
-        <f t="shared" ref="AB2:AE8" si="5">($AF2-$AA2)/5+AA2</f>
-        <v>0.68812623141993434</v>
-      </c>
-      <c r="AC2" s="11">
-        <f t="shared" si="5"/>
-        <v>0.69125072500069284</v>
-      </c>
-      <c r="AD2" s="11">
-        <f t="shared" si="5"/>
-        <v>0.69437521858145135</v>
-      </c>
-      <c r="AE2" s="11">
-        <f t="shared" si="5"/>
-        <v>0.69749971216220985</v>
-      </c>
-      <c r="AF2" s="11">
-        <f>AA2*IESS!H2/IESS!G2</f>
-        <v>0.70062420574296835</v>
-      </c>
-      <c r="AG2" s="11">
-        <f t="shared" ref="AG2:AI8" si="6">($AF2-$AA2)/5+AF2</f>
-        <v>0.70374869932372686</v>
-      </c>
-      <c r="AH2" s="11">
-        <f t="shared" si="6"/>
-        <v>0.70687319290448536</v>
-      </c>
-      <c r="AI2" s="11">
-        <f t="shared" si="6"/>
-        <v>0.70999768648524386</v>
-      </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.57433333333333281</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.56966666666666699</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.57299999999999951</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.58099999999999907</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.58899999999999864</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.59700000000000042</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.63399999999999634</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.66299999999999271</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.69199999999999817</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0.72099999999999453</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0.75199999999999989</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0.75399999999999978</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0.75599999999999967</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0.75800000000000012</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10">
         <f>IESS!B3</f>
         <v>0.58826000000000001</v>
       </c>
-      <c r="C3" s="11">
-        <f t="shared" si="0"/>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:F8" si="0">($G3-$B3)/5+B3</f>
         <v>0.58926000000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>0.59026000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
         <v>0.59126000000000001</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>0.59226000000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>IESS!C3</f>
         <v>0.59326000000000001</v>
       </c>
-      <c r="H3" s="11">
-        <f t="shared" si="1"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:K8" si="1">($L3-$G3)/5+G3</f>
         <v>0.59426000000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" si="1"/>
         <v>0.59526000000000001</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f t="shared" si="1"/>
         <v>0.59626000000000001</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f t="shared" si="1"/>
         <v>0.59726000000000001</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <f>IESS!D3</f>
         <v>0.59826000000000001</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" si="2"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:P8" si="2">($Q3-$L3)/5+L3</f>
         <v>0.59926000000000001</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <f t="shared" si="2"/>
         <v>0.60026000000000002</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <f t="shared" si="2"/>
         <v>0.60126000000000002</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <f t="shared" si="2"/>
         <v>0.60226000000000002</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <f>IESS!E3</f>
         <v>0.60326000000000002</v>
       </c>
-      <c r="R3" s="11">
-        <f t="shared" si="3"/>
+      <c r="R3" s="10">
+        <f t="shared" ref="R3:U8" si="3">($V3-$Q3)/5+Q3</f>
         <v>0.60426000000000002</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <f t="shared" si="3"/>
         <v>0.60526000000000002</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f t="shared" si="3"/>
         <v>0.60626000000000002</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" si="3"/>
         <v>0.60726000000000002</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f>IESS!F3</f>
         <v>0.60826000000000002</v>
       </c>
-      <c r="W3" s="11">
-        <f t="shared" si="4"/>
+      <c r="W3" s="10">
+        <f t="shared" ref="W3:Z8" si="4">($AA3-$V3)/5+V3</f>
         <v>0.60926000000000002</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <f t="shared" si="4"/>
         <v>0.61026000000000002</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <f t="shared" si="4"/>
         <v>0.61126000000000003</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="10">
         <f t="shared" si="4"/>
         <v>0.61226000000000003</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="10">
         <f>IESS!G3</f>
         <v>0.61326000000000003</v>
       </c>
-      <c r="AB3" s="11">
-        <f t="shared" si="5"/>
+      <c r="AB3" s="10">
+        <f t="shared" ref="AB3:AE8" si="5">($AF3-$AA3)/5+AA3</f>
         <v>0.61426000000000003</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="10">
         <f t="shared" si="5"/>
         <v>0.61526000000000003</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="10">
         <f t="shared" si="5"/>
         <v>0.61626000000000003</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="10">
         <f t="shared" si="5"/>
         <v>0.61726000000000003</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="10">
         <f>IESS!H3</f>
         <v>0.61826000000000003</v>
       </c>
-      <c r="AG3" s="11">
-        <f t="shared" si="6"/>
+      <c r="AG3" s="10">
+        <f t="shared" ref="AG3:AI8" si="6">($AF3-$AA3)/5+AF3</f>
         <v>0.61926000000000003</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="10">
         <f t="shared" si="6"/>
         <v>0.62026000000000003</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="10">
         <f t="shared" si="6"/>
         <v>0.62126000000000003</v>
       </c>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
         <f>IESS!B4</f>
         <v>0.35</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>IESS!C4</f>
         <v>0.35</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <f>IESS!D4</f>
         <v>0.35</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <f>IESS!E4</f>
         <v>0.35</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <f>IESS!F4</f>
         <v>0.35</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="10">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="10">
         <f>IESS!G4</f>
         <v>0.35</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="10">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="10">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="10">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="10">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="10">
         <f>IESS!H4</f>
         <v>0.35</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="10">
         <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="10">
         <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10">
         <f>IESS!B5</f>
         <v>0.26250000000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>0.26750000000000002</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0.27250000000000002</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>IESS!C5</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0.27750000000000002</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>0.28250000000000003</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>0.28500000000000003</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <f>IESS!D5</f>
         <v>0.28750000000000003</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <f t="shared" si="2"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <f t="shared" si="2"/>
         <v>0.29250000000000004</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <f t="shared" si="2"/>
         <v>0.29500000000000004</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <f t="shared" si="2"/>
         <v>0.29750000000000004</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <f>IESS!E5</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <f t="shared" si="3"/>
         <v>0.30250000000000005</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <f t="shared" si="3"/>
         <v>0.30500000000000005</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <f t="shared" si="3"/>
         <v>0.30750000000000005</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <f t="shared" si="3"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <f>IESS!F5</f>
         <v>0.31250000000000006</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <f t="shared" si="4"/>
         <v>0.31500000000000006</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="10">
         <f t="shared" si="4"/>
         <v>0.31750000000000006</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <f t="shared" si="4"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <f t="shared" si="4"/>
         <v>0.32250000000000006</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="10">
         <f>IESS!G5</f>
         <v>0.32500000000000007</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="10">
         <f t="shared" si="5"/>
         <v>0.32750000000000007</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="10">
         <f t="shared" si="5"/>
         <v>0.33000000000000007</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="10">
         <f t="shared" si="5"/>
         <v>0.33250000000000007</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="10">
         <f t="shared" si="5"/>
         <v>0.33500000000000008</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="10">
         <f>IESS!H5</f>
         <v>0.33750000000000008</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="10">
         <f t="shared" si="6"/>
         <v>0.34000000000000008</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="10">
         <f t="shared" si="6"/>
         <v>0.34250000000000008</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="10">
         <f t="shared" si="6"/>
         <v>0.34500000000000008</v>
       </c>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="11">
-        <f>'[1]BECF-pre-ret'!B11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="G6" s="11">
-        <f>'[1]BECF-pre-ret'!C11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="L6" s="11">
-        <f>'[1]BECF-pre-ret'!D11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="2"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="2"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="2"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="2"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="Q6" s="11">
-        <f>'[1]BECF-pre-ret'!E11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" si="3"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="3"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="3"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="3"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="V6" s="11">
-        <f>'[1]BECF-pre-ret'!F11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="4"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="4"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="Y6" s="11">
-        <f t="shared" si="4"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="Z6" s="11">
-        <f t="shared" si="4"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AA6" s="11">
-        <f>'[1]BECF-pre-ret'!G11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AB6" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AC6" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AD6" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AE6" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AF6" s="11">
-        <f>'[1]BECF-pre-ret'!H11</f>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AG6" s="11">
-        <f t="shared" si="6"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AH6" s="11">
-        <f t="shared" si="6"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AI6" s="11">
-        <f t="shared" si="6"/>
-        <v>0.10585714285714287</v>
-      </c>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11">
-        <f>'[1]BECF-pre-ret'!B12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="G7" s="11">
-        <f>'[1]BECF-pre-ret'!C12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="1"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="L7" s="11">
-        <f>'[1]BECF-pre-ret'!D12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="2"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="Q7" s="11">
-        <f>'[1]BECF-pre-ret'!E12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="V7" s="11">
-        <f>'[1]BECF-pre-ret'!F12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="X7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="Y7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="Z7" s="11">
-        <f t="shared" si="4"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AA7" s="11">
-        <f>'[1]BECF-pre-ret'!G12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AB7" s="11">
-        <f t="shared" si="5"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AC7" s="11">
-        <f t="shared" si="5"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AD7" s="11">
-        <f t="shared" si="5"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AE7" s="11">
-        <f t="shared" si="5"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AF7" s="11">
-        <f>'[1]BECF-pre-ret'!H12</f>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AG7" s="11">
-        <f t="shared" si="6"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AH7" s="11">
-        <f t="shared" si="6"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AI7" s="11">
-        <f t="shared" si="6"/>
-        <v>7.9428571428571418E-2</v>
-      </c>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0.11790000000000003</v>
+      </c>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
         <f>B2</f>
-        <v>0.5988</v>
-      </c>
-      <c r="C8" s="11">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>0.60530612345282009</v>
-      </c>
-      <c r="D8" s="11">
+        <v>0.57619999999999993</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>0.61181224690564018</v>
-      </c>
-      <c r="E8" s="11">
+        <v>0.57339999999999991</v>
+      </c>
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>0.61831837035846027</v>
-      </c>
-      <c r="F8" s="11">
+        <v>0.57059999999999989</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>0.62482449381128036</v>
-      </c>
-      <c r="G8" s="11">
+        <v>0.56779999999999986</v>
+      </c>
+      <c r="G8" s="10">
         <f>G2</f>
-        <v>0.63133061726410056</v>
-      </c>
-      <c r="H8" s="11">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>0.63515487528995085</v>
-      </c>
-      <c r="I8" s="11">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>0.63897913331580114</v>
-      </c>
-      <c r="J8" s="11">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>0.64280339134165143</v>
-      </c>
-      <c r="K8" s="11">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>0.64662764936750172</v>
-      </c>
-      <c r="L8" s="11">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="L8" s="10">
         <f>L2</f>
-        <v>0.65045190739335224</v>
-      </c>
-      <c r="M8" s="11">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>0.65295523613208795</v>
-      </c>
-      <c r="N8" s="11">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="2"/>
-        <v>0.65545856487082366</v>
-      </c>
-      <c r="O8" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="O8" s="10">
         <f t="shared" si="2"/>
-        <v>0.65796189360955937</v>
-      </c>
-      <c r="P8" s="11">
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="P8" s="10">
         <f t="shared" si="2"/>
-        <v>0.66046522234829508</v>
-      </c>
-      <c r="Q8" s="11">
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="Q8" s="10">
         <f>Q2</f>
-        <v>0.66296855108703079</v>
-      </c>
-      <c r="R8" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="R8" s="10">
         <f t="shared" si="3"/>
-        <v>0.66520838995853315</v>
-      </c>
-      <c r="S8" s="11">
+        <v>0.752</v>
+      </c>
+      <c r="S8" s="10">
         <f t="shared" si="3"/>
-        <v>0.66744822883003552</v>
-      </c>
-      <c r="T8" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="T8" s="10">
         <f t="shared" si="3"/>
-        <v>0.66968806770153788</v>
-      </c>
-      <c r="U8" s="11">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="U8" s="10">
         <f t="shared" si="3"/>
-        <v>0.67192790657304025</v>
-      </c>
-      <c r="V8" s="11">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="V8" s="10">
         <f>V2</f>
-        <v>0.67416774544454283</v>
-      </c>
-      <c r="W8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="4"/>
-        <v>0.67633454392346948</v>
-      </c>
-      <c r="X8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="X8" s="10">
         <f t="shared" si="4"/>
-        <v>0.67850134240239612</v>
-      </c>
-      <c r="Y8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="Y8" s="10">
         <f t="shared" si="4"/>
-        <v>0.68066814088132277</v>
-      </c>
-      <c r="Z8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="Z8" s="10">
         <f t="shared" si="4"/>
-        <v>0.68283493936024942</v>
-      </c>
-      <c r="AA8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AA8" s="10">
         <f>AA2</f>
-        <v>0.68500173783917584</v>
-      </c>
-      <c r="AB8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AB8" s="10">
         <f t="shared" si="5"/>
-        <v>0.68812623141993434</v>
-      </c>
-      <c r="AC8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AC8" s="10">
         <f t="shared" si="5"/>
-        <v>0.69125072500069284</v>
-      </c>
-      <c r="AD8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AD8" s="10">
         <f t="shared" si="5"/>
-        <v>0.69437521858145135</v>
-      </c>
-      <c r="AE8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AE8" s="10">
         <f t="shared" si="5"/>
-        <v>0.69749971216220985</v>
-      </c>
-      <c r="AF8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AF8" s="10">
         <f>AF2</f>
-        <v>0.70062420574296835</v>
-      </c>
-      <c r="AG8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AG8" s="10">
         <f t="shared" si="6"/>
-        <v>0.70374869932372686</v>
-      </c>
-      <c r="AH8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AH8" s="10">
         <f t="shared" si="6"/>
-        <v>0.70687319290448536</v>
-      </c>
-      <c r="AI8" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="AI8" s="10">
         <f t="shared" si="6"/>
-        <v>0.70999768648524386</v>
-      </c>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
+        <v>0.76</v>
+      </c>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2503,14 +2304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,20 +2322,23 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <f>Calcs!C2*10^3</f>
@@ -2545,12 +2349,12 @@
       </c>
       <c r="D2" s="5">
         <f>B2/(AVERAGE('Future Scaling'!B2:AI2)/'Future Scaling'!B2)</f>
-        <v>8588738.3883471228</v>
+        <v>7961226.0907078534</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <f>Calcs!C4*10^3</f>
@@ -2566,7 +2370,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <f>Calcs!C8*10^3</f>
@@ -2582,7 +2386,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2596,7 +2400,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2610,7 +2414,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2624,7 +2428,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2638,7 +2442,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
         <f>Calcs!C9*10^3</f>
@@ -2654,7 +2458,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2668,7 +2472,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <f>Calcs!C12*10^3</f>
@@ -2679,12 +2483,12 @@
       </c>
       <c r="D11" s="5">
         <f>B11/(AVERAGE('Future Scaling'!B6:AI6)/'Future Scaling'!B6)</f>
-        <v>9750000</v>
+        <v>9749999.9999999963</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <f>Calcs!C13*10^3</f>
@@ -2695,12 +2499,12 @@
       </c>
       <c r="D12" s="5">
         <f>B12/(AVERAGE('Future Scaling'!B7:AI7)/'Future Scaling'!B7)</f>
-        <v>8901999.9999999944</v>
+        <v>8901999.9999999963</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5">
         <f>Calcs!C3*10^3</f>
@@ -2711,12 +2515,12 @@
       </c>
       <c r="D13" s="5">
         <f>B13/(AVERAGE('Future Scaling'!B8:AI8)/'Future Scaling'!B8)</f>
-        <v>10840441.075711314</v>
+        <v>10054401.433630416</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2726,6 +2530,54 @@
       </c>
       <c r="D14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B11</f>
+        <v>9750000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <f>D11</f>
+        <v>9749999.9999999963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B11</f>
+        <v>9750000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D11</f>
+        <v>9749999.9999999963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B9</f>
+        <v>13648566.52</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D9</f>
+        <v>11795057.486419749</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BHRbEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\elec\BHRbEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F484CE-45A5-4806-84AE-B161EE71B739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E1E39-2BE6-4FB6-ABC3-6970C4760293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -623,17 +626,17 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,85 +644,85 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.9683207199999999</v>
       </c>
@@ -727,7 +730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3412.1416300000001</v>
       </c>
@@ -735,19 +738,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
     </row>
   </sheetData>
@@ -767,14 +770,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -782,7 +785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -803,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -829,7 +832,7 @@
         <v>2338200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -855,7 +858,7 @@
         <v>1149540</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H5" t="s">
         <v>27</v>
       </c>
@@ -870,7 +873,7 @@
         <v>4224780</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H6" t="s">
         <v>28</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1435500</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -906,7 +909,7 @@
         <v>650250</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -918,7 +921,7 @@
         <v>9748.9760857142865</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -942,7 +945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
         <v>33</v>
       </c>
@@ -956,7 +959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -977,7 +980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H14" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
         <v>38</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H16" t="s">
         <v>39</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H17" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H18" t="s">
         <v>41</v>
       </c>
@@ -1102,16 +1105,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -1134,141 +1137,141 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.34070259776669048</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>0.35921172570395338</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.37009127349902121</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>0.37721293853201443</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>0.38358500701982073</v>
+        <v>0.76</v>
       </c>
       <c r="G2">
-        <v>0.38974928449650081</v>
+        <v>0.76</v>
       </c>
       <c r="H2">
-        <v>0.39863808776695647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.58826000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C3">
-        <v>0.59326000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D3">
-        <v>0.59826000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E3">
-        <v>0.60326000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="F3">
-        <v>0.60826000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="G3">
-        <v>0.61326000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
-        <v>0.61826000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.26250000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.28750000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="E5">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
-        <v>0.31250000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.32500000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="H5">
-        <v>0.33750000000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:H6" si="0">B2</f>
-        <v>0.34070259776669048</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.35921172570395338</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.37009127349902121</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.37721293853201443</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.38358500701982073</v>
+        <v>0.76</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.38974928449650081</v>
+        <v>0.76</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.39863808776695647</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -1284,13 +1287,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="4">
         <v>2017</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1503,436 +1506,436 @@
       <c r="AJ2" s="10"/>
       <c r="AK2" s="10"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10">
         <f>IESS!B3</f>
-        <v>0.58826000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C3" s="10">
         <f t="shared" ref="C3:F8" si="0">($G3-$B3)/5+B3</f>
-        <v>0.58926000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>0.59026000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>0.59126000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>0.59226000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G3" s="10">
         <f>IESS!C3</f>
-        <v>0.59326000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:K8" si="1">($L3-$G3)/5+G3</f>
-        <v>0.59426000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I3" s="10">
         <f t="shared" si="1"/>
-        <v>0.59526000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" si="1"/>
-        <v>0.59626000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
-        <v>0.59726000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L3" s="10">
         <f>IESS!D3</f>
-        <v>0.59826000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="M3" s="10">
         <f t="shared" ref="M3:P8" si="2">($Q3-$L3)/5+L3</f>
-        <v>0.59926000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" si="2"/>
-        <v>0.60026000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="2"/>
-        <v>0.60126000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="P3" s="10">
         <f t="shared" si="2"/>
-        <v>0.60226000000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="Q3" s="10">
         <f>IESS!E3</f>
-        <v>0.60326000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="R3" s="10">
         <f t="shared" ref="R3:U8" si="3">($V3-$Q3)/5+Q3</f>
-        <v>0.60426000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" si="3"/>
-        <v>0.60526000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="T3" s="10">
         <f t="shared" si="3"/>
-        <v>0.60626000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="U3" s="10">
         <f t="shared" si="3"/>
-        <v>0.60726000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="V3" s="10">
         <f>IESS!F3</f>
-        <v>0.60826000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="W3" s="10">
         <f t="shared" ref="W3:Z8" si="4">($AA3-$V3)/5+V3</f>
-        <v>0.60926000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="X3" s="10">
         <f t="shared" si="4"/>
-        <v>0.61026000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="Y3" s="10">
         <f t="shared" si="4"/>
-        <v>0.61126000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="Z3" s="10">
         <f t="shared" si="4"/>
-        <v>0.61226000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AA3" s="10">
         <f>IESS!G3</f>
-        <v>0.61326000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AB3" s="10">
         <f t="shared" ref="AB3:AE8" si="5">($AF3-$AA3)/5+AA3</f>
-        <v>0.61426000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="10">
         <f t="shared" si="5"/>
-        <v>0.61526000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AD3" s="10">
         <f t="shared" si="5"/>
-        <v>0.61626000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AE3" s="10">
         <f t="shared" si="5"/>
-        <v>0.61726000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AF3" s="10">
         <f>IESS!H3</f>
-        <v>0.61826000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AG3" s="10">
         <f t="shared" ref="AG3:AI8" si="6">($AF3-$AA3)/5+AF3</f>
-        <v>0.61926000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AH3" s="10">
         <f t="shared" si="6"/>
-        <v>0.62026000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AI3" s="10">
         <f t="shared" si="6"/>
-        <v>0.62126000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="10">
         <f>IESS!B4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="10">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="10">
         <f>IESS!C4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="10">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="L4" s="10">
         <f>IESS!D4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="10">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="Q4" s="10">
         <f>IESS!E4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="R4" s="10">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="T4" s="10">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="U4" s="10">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="V4" s="10">
         <f>IESS!F4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="X4" s="10">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" s="10">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="10">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AA4" s="10">
         <f>IESS!G4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AB4" s="10">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AC4" s="10">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" s="10">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AE4" s="10">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="10">
         <f>IESS!H4</f>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AG4" s="10">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AH4" s="10">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AI4" s="10">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10">
         <f>IESS!B5</f>
-        <v>0.26250000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" si="0"/>
-        <v>0.26500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>0.26750000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>0.27250000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="10">
         <f>IESS!C5</f>
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>0.27750000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>0.28250000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="L5" s="10">
         <f>IESS!D5</f>
-        <v>0.28750000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="2"/>
-        <v>0.29000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="2"/>
-        <v>0.29250000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="2"/>
-        <v>0.29500000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="2"/>
-        <v>0.29750000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="Q5" s="10">
         <f>IESS!E5</f>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="3"/>
-        <v>0.30250000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="3"/>
-        <v>0.30500000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="3"/>
-        <v>0.30750000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="3"/>
-        <v>0.31000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="V5" s="10">
         <f>IESS!F5</f>
-        <v>0.31250000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="4"/>
-        <v>0.31500000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="4"/>
-        <v>0.31750000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="4"/>
-        <v>0.32000000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="4"/>
-        <v>0.32250000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="AA5" s="10">
         <f>IESS!G5</f>
-        <v>0.32500000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="5"/>
-        <v>0.32750000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="AC5" s="10">
         <f t="shared" si="5"/>
-        <v>0.33000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" s="10">
         <f t="shared" si="5"/>
-        <v>0.33250000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="AE5" s="10">
         <f t="shared" si="5"/>
-        <v>0.33500000000000008</v>
+        <v>0.3</v>
       </c>
       <c r="AF5" s="10">
         <f>IESS!H5</f>
-        <v>0.33750000000000008</v>
+        <v>0.3</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="6"/>
-        <v>0.34000000000000008</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="6"/>
-        <v>0.34250000000000008</v>
+        <v>0.3</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="6"/>
-        <v>0.34500000000000008</v>
+        <v>0.3</v>
       </c>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2153,7 @@
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2310,19 +2313,19 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>7961226.0907078534</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2365,10 +2368,10 @@
       </c>
       <c r="D3" s="5">
         <f>B3/(AVERAGE('Future Scaling'!B3:AI3)/'Future Scaling'!B3)</f>
-        <v>7790459.4596614549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7728190.6564794295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2381,10 +2384,10 @@
       </c>
       <c r="D4" s="5">
         <f>B4/(AVERAGE('Future Scaling'!B4:AI4)/'Future Scaling'!B4)</f>
-        <v>9748976.0857142899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9748976.0857142825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2453,10 +2456,10 @@
       </c>
       <c r="D9" s="5">
         <f>B9/(AVERAGE('Future Scaling'!B5:AI5)/'Future Scaling'!B5)</f>
-        <v>11795057.486419749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13648566.519999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>9749999.9999999963</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>8901999.9999999963</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>10054401.433630416</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>9749999.9999999963</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>9749999.9999999963</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="D17" s="5">
         <f>D9</f>
-        <v>11795057.486419749</v>
+        <v>13648566.519999994</v>
       </c>
     </row>
   </sheetData>
